--- a/fuentes/contenidos/grado09/guion11/EsqueletoGuion_CN_09_11_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion11/EsqueletoGuion_CN_09_11_CO.xlsx
@@ -13,12 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="105">
   <si>
     <t>TITULO</t>
   </si>
@@ -80,7 +80,7 @@
     <t>TIPO SECCION 3</t>
   </si>
   <si>
-    <t>Calor y temperatura</t>
+    <t>El calor y la temperatura</t>
   </si>
   <si>
     <t>CN_09_11_CO</t>
@@ -107,6 +107,27 @@
     <t>RM_01_02_CO</t>
   </si>
   <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>2º ESO</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Calcula con unidades de temperatura</t>
+  </si>
+  <si>
+    <t>CN_08_09</t>
+  </si>
+  <si>
     <t>4º ESO</t>
   </si>
   <si>
@@ -116,112 +137,61 @@
     <t>El calor</t>
   </si>
   <si>
-    <t>El equilibrio térmico</t>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El calor y la temperatura   </t>
   </si>
   <si>
     <t>FQ_10_08</t>
   </si>
   <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>2º ESO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>El calor y la temperatura</t>
-  </si>
-  <si>
-    <t>Calcula con unidades de temperatura</t>
-  </si>
-  <si>
-    <t>CN_08_09</t>
+    <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Practica la conversión de unidades de energía</t>
+  </si>
+  <si>
+    <t>Los efectos del calor sobre los cuerpos</t>
+  </si>
+  <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>Comprende la dilatación de la materia</t>
+  </si>
+  <si>
+    <t>El comportamiento anómalo del agua</t>
   </si>
   <si>
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: El calor y la temperatura   </t>
-  </si>
-  <si>
-    <t>Diaporama F1-02</t>
-  </si>
-  <si>
-    <t>Practica la conversión de unidades de energía</t>
-  </si>
-  <si>
-    <t>Los efectos del calor sobre los cuerpos</t>
-  </si>
-  <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
-    <t>Comprende la dilatación de la materia</t>
-  </si>
-  <si>
-    <t>El comportamiento anómalo del agua</t>
+    <t>Refuerza tu aprendizaje: El calor y la temperatura</t>
+  </si>
+  <si>
+    <t>La bomba de calor</t>
+  </si>
+  <si>
+    <t>3º ESO</t>
+  </si>
+  <si>
+    <t>La electricidad</t>
+  </si>
+  <si>
+    <t>El circuito eléctrico: funcionamiento</t>
+  </si>
+  <si>
+    <t>FQ_09_08</t>
+  </si>
+  <si>
+    <t>La convección</t>
+  </si>
+  <si>
+    <t>La radiación</t>
+  </si>
+  <si>
+    <t>Recurso M2A-02</t>
   </si>
   <si>
     <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: El calor y la temperatura</t>
-  </si>
-  <si>
-    <t>La bomba de calor</t>
-  </si>
-  <si>
-    <t>3º ESO</t>
-  </si>
-  <si>
-    <t>La electricidad</t>
-  </si>
-  <si>
-    <t>El circuito eléctrico: funcionamiento</t>
-  </si>
-  <si>
-    <t>FQ_09_08</t>
-  </si>
-  <si>
-    <t>Recurso M2B-01</t>
-  </si>
-  <si>
-    <t>La convección</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>La radiación</t>
-  </si>
-  <si>
-    <t>Recurso M2A-02</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Conoce las técnicas de aislamiento</t>
-  </si>
-  <si>
-    <t>Recurso M4A-03</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La propagación del calor</t>
@@ -881,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -944,40 +914,40 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -985,19 +955,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1011,13 +981,13 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1025,59 +995,59 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1085,59 +1055,59 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
+      <c r="A12">
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1145,39 +1115,39 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1185,19 +1155,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1205,19 +1175,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1225,19 +1195,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1251,113 +1221,113 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
+      <c r="A19">
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
+      <c r="A21">
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1365,39 +1335,39 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1405,39 +1375,39 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6</v>
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1445,19 +1415,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1465,142 +1435,22 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1642,44 +1492,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1543,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1575,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1616,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1627,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1649,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1660,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1671,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1693,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1704,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,7 +1740,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1748,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1759,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1770,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1781,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1803,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1814,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1825,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1836,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1847,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +1858,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +1869,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +1880,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +1891,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,76 +1902,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -2140,7 +1924,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -2187,10 +1971,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,10 +1993,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,10 +2004,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2231,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,13 +2032,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,13 +2074,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2304,19 +2088,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,13 +2108,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2338,13 +2125,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,13 +2142,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,13 +2159,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,19 +2176,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2400,16 +2199,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>94</v>
+      <c r="E17" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,16 +2213,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>95</v>
+      <c r="E18" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,16 +2227,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>96</v>
+      <c r="E19" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,16 +2241,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>97</v>
+      <c r="E20" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,22 +2255,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>100</v>
+      <c r="E21" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2491,16 +2275,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,16 +2286,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,16 +2297,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2542,16 +2308,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,13 +2319,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,13 +2336,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,13 +2350,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,13 +2364,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,19 +2378,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2635,10 +2392,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2646,10 +2412,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2657,10 +2426,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,10 +2440,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,16 +2454,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,13 +2468,19 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,13 +2488,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2724,13 +2502,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,13 +2516,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,19 +2530,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2772,13 +2544,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2786,13 +2564,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,13 +2578,13 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,13 +2592,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,19 +2606,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,13 +2620,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,13 +2640,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2876,13 +2657,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,13 +2674,16 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2904,19 +2691,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,13 +2708,22 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2938,13 +2731,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,13 +2748,16 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2966,13 +2765,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2980,19 +2782,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3000,16 +2799,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3017,16 +2813,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3034,16 +2827,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,16 +2841,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3068,22 +2855,19 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,16 +2875,10 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,16 +2886,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3125,16 +2897,10 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,16 +2908,10 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3159,13 +2919,16 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,13 +2936,13 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3187,13 +2950,13 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3201,13 +2964,13 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3215,19 +2978,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,10 +2992,19 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3246,10 +3012,13 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3257,10 +3026,13 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3268,10 +3040,13 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3279,16 +3054,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>92</v>
+      <c r="D74" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3296,13 +3068,19 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3310,13 +3088,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3324,13 +3102,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3338,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3352,19 +3130,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3372,13 +3144,19 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3386,13 +3164,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3400,13 +3178,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3414,13 +3192,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,19 +3206,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3448,13 +3220,19 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3462,13 +3240,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3476,13 +3254,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3490,13 +3268,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3504,19 +3282,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,13 +3296,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3538,13 +3310,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3552,13 +3324,13 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3566,13 +3338,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3580,19 +3352,19 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I94" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,13 +3372,10 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3614,13 +3383,10 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,13 +3394,10 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3642,13 +3405,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,19 +3416,16 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3676,13 +3433,13 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,13 +3447,13 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,13 +3461,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,13 +3475,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3732,19 +3489,19 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3752,13 +3509,13 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,13 +3523,13 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,13 +3537,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3794,13 +3551,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3808,19 +3565,19 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,13 +3585,16 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3842,13 +3602,16 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,13 +3619,16 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,13 +3636,16 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,19 +3653,22 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,13 +3676,16 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3918,13 +3693,16 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,13 +3710,16 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,13 +3727,16 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3960,13 +3744,22 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,13 +3767,13 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3988,13 +3781,13 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4002,13 +3795,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,19 +3809,13 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4036,10 +3823,19 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4047,10 +3843,10 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,10 +3854,10 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,10 +3865,10 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4080,16 +3876,10 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4097,13 +3887,16 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H129" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>94</v>
+      <c r="I129" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,13 +3904,10 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,13 +3915,10 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,13 +3926,10 @@
         <v>20</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4153,19 +3937,10 @@
         <v>20</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4173,13 +3948,16 @@
         <v>20</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,13 +3965,10 @@
         <v>20</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4201,13 +3976,10 @@
         <v>20</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4215,13 +3987,10 @@
         <v>20</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4229,19 +3998,10 @@
         <v>20</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,16 +4009,16 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H139" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>94</v>
+      <c r="I139" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,16 +4026,13 @@
         <v>20</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,437 +4040,16 @@
         <v>20</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H163" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I163" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I168" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I169" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I170" s="10" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
